--- a/attendance/December 2024/BSM201/attendance.xlsx
+++ b/attendance/December 2024/BSM201/attendance.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tue 03-12-24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Wed 04-12-24" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -538,4 +539,129 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>University Roll Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sandipan Sasmal</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-12-04 17:09:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apratim Halder</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-12-04 17:09:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kasturi Burman</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>124</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rebanta Biswas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>98</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>